--- a/biology/Mycologie/Microsporidiomycota/Microsporidiomycota.xlsx
+++ b/biology/Mycologie/Microsporidiomycota/Microsporidiomycota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microsporidiomycota
-Les Microsporidies, Microsporidiomycota[1], anciennement Microsporidia, sont une division de champignons parasites intracellulaires obligatoires, appartenant au règne des Fungi.
-Il semblerait qu'ils soient génétiquement très proches des Eumycètes dont ils dérivent peut-être par adaptation au parasitisme (Une hypothèse proposée par James &amp; al. (2006) est que le groupe des microsporidia dériverait d'un ancêtre chytride endoparasite (proche de Rozella allomycis) appartenant à la première branche divergente de l'arbre phylogénétique des Fungi)[2]. La comparaison des régions de synténie avec d'autres champignons montre que les microsporidies seraient proches des Mucoromycotina. On en connait maintenant 150 genres et 1200 espèces. Cependant, une nouvelle estimation du nombre d’espèces montre qu’il se pourrait que le nombre d’espèce de microsporidies atteigne le nombre d’espèces animales.
-Les microsporidies présentent une adaptation caractérisée par la réduction. En effet les microsporidies sont réduites à beaucoup de niveaux par rapport aux autres eucaryotes ; au niveau du génome en premier lieu mais aussi au niveau de leur métabolisme (elles n'ont pas de mitochondries)[2].
+Les Microsporidies, Microsporidiomycota, anciennement Microsporidia, sont une division de champignons parasites intracellulaires obligatoires, appartenant au règne des Fungi.
+Il semblerait qu'ils soient génétiquement très proches des Eumycètes dont ils dérivent peut-être par adaptation au parasitisme (Une hypothèse proposée par James &amp; al. (2006) est que le groupe des microsporidia dériverait d'un ancêtre chytride endoparasite (proche de Rozella allomycis) appartenant à la première branche divergente de l'arbre phylogénétique des Fungi). La comparaison des régions de synténie avec d'autres champignons montre que les microsporidies seraient proches des Mucoromycotina. On en connait maintenant 150 genres et 1200 espèces. Cependant, une nouvelle estimation du nombre d’espèces montre qu’il se pourrait que le nombre d’espèce de microsporidies atteigne le nombre d’espèces animales.
+Les microsporidies présentent une adaptation caractérisée par la réduction. En effet les microsporidies sont réduites à beaucoup de niveaux par rapport aux autres eucaryotes ; au niveau du génome en premier lieu mais aussi au niveau de leur métabolisme (elles n'ont pas de mitochondries).
 Le génome de Encephalitozoon cuniculi a été entièrement séquencé. Ce parasite possède le génome eucaryote le plus petit connu à ce jour.
 </t>
         </is>
@@ -515,10 +527,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première description d’une microsporidie fut faite au milieu du XIXe siècle, quand la pébrine décimait les vers à soie. Cette maladie causée par Nosema bombycis fut identifiée par Karl Wilhelm von Nägeli en 1857[3].
-Ce champignon semble avoir été signalé pour la première fois en 1849, avant l'identification de la pébrine, par Guérin-Méneville, qui croyait erronément que les vers à soie sur lesquels il l'observait étaient atteints de muscardine[4]. Après l'identification de la pébrine, Cornalia, Franz Leydig[5], Balbiani[6] et Pasteur[7] étudièrent son agent microbien (« corpuscules ») de façon plus approfondie. C’est ensuite Louis Pasteur qui eut l’idée de sélectionner les individus non infectés pour recréer de nouveaux élevages sains.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description d’une microsporidie fut faite au milieu du XIXe siècle, quand la pébrine décimait les vers à soie. Cette maladie causée par Nosema bombycis fut identifiée par Karl Wilhelm von Nägeli en 1857.
+Ce champignon semble avoir été signalé pour la première fois en 1849, avant l'identification de la pébrine, par Guérin-Méneville, qui croyait erronément que les vers à soie sur lesquels il l'observait étaient atteints de muscardine. Après l'identification de la pébrine, Cornalia, Franz Leydig, Balbiani et Pasteur étudièrent son agent microbien (« corpuscules ») de façon plus approfondie. C’est ensuite Louis Pasteur qui eut l’idée de sélectionner les individus non infectés pour recréer de nouveaux élevages sains.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Microsporidies parasitent de très nombreux Eucaryotes comme d'autres protistes, des Invertébrés, des Vertébrés dont l'humain. Elles infectent aussi certains protistes tels que des ciliés qui sont elles-mêmes des parasites. Ces parasites de parasites s’expliquent par le fait que ces 2 espèces infectaient précédemment le même hôte et qu’une des deux espèces s’est adaptée pour parasiter le voisin.
 Les espèces du genre Nosema sont très pathogènes pour les Insectes. Nosema bomycis attaque le ver à soie (la chenille du bombyx du murier), Nosema apis attaque l'abeille adulte. De nombreux microsporidies sont des pathogènes de poissons et de crustacés. Les espèces des genres Enterocytozoon et Encephalitozoon ont pour réservoir divers animaux et peuvent être pathogène opportuniste de l'humain, notamment chez les immunodéprimés. Chez l'humain, les microsporidies peuvent provoquer des troubles intestinaux ou oculaires et peuvent être détectées par un examen parasitologique des selles.
@@ -582,7 +598,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les microsporidies présentent une forme de résistance et de dissémination : la spore. La spore est le seul stade reconnaissable des microsporidies. C’est à ce stade que les espèces peuvent être différenciées et c’est le seul à être viable hors de la cellule hôte. La taille et la forme de la spore sont très conservés chez une même espèce.
 La spore est entourée par une membrane plasmique classique ainsi que par deux parois extracellulaires rigides : exospore et endospore.
@@ -621,11 +639,48 @@
           <t>Infection et cycle de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle se déroule en trois phases : la phase infectieuse, la phase de prolifération et la phase de différenciation.
-La germination
-La phase infectieuse commence par la germination des spores qui est un événement biologique assez surprenant. Cette germination commence par un environnement favorable ; ces conditions varient selon les espèces mais sont peu connues. Il peut s’agir d’une altération de pH, de déshydratation suivie d’une réhydratation, de la présence d’anions, de cations, d’UV etc. Quand la germination commence, le premier signe est un grossissement de la spore et plus particulièrement du polaroplaste et de la vacuole postérieure. Il en résulte une forte augmentation de la pression osmotique. Cette augmentation de pression peut s’expliquer par deux mécanismes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Infection et cycle de vie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La germination</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phase infectieuse commence par la germination des spores qui est un événement biologique assez surprenant. Cette germination commence par un environnement favorable ; ces conditions varient selon les espèces mais sont peu connues. Il peut s’agir d’une altération de pH, de déshydratation suivie d’une réhydratation, de la présence d’anions, de cations, d’UV etc. Quand la germination commence, le premier signe est un grossissement de la spore et plus particulièrement du polaroplaste et de la vacuole postérieure. Il en résulte une forte augmentation de la pression osmotique. Cette augmentation de pression peut s’expliquer par deux mécanismes :
 les spores sont équipées d’aquaporines qui transportent l’eau vers l’intérieur du sporoplasme
 l’autre mécanisme fut suggéré quand on a constaté que le niveau de tréhalose augmente considérablement durant la germination. Ce sucre est un dimère de glucose et on suppose que sa dégradation augmente la molarité totale du sporoplasme et donc entraînerait l’entrée d’eau dans la cellule. (L’augmentation du niveau de tréhalose pourrait aussi jouer le rôle de métabolite anti-stress.)
 Cependant on a constaté dans certaines espèces de microsporidies qu’il n’y avait pas de modification du niveau de tréhalose dans la cellule suggérant d’autres mécanismes pour l’entrée d’eau dans la spore durant la germination.
@@ -639,42 +694,114 @@
 Une fois que le tube est totalement sorti, la pression osmotique résiduelle force le sporoplasme à passer dans le tube, qu’il parcourt en seulement 15 à 500 ms (notez la très forte déformation du sporoplasme).
 Ainsi le sporoplasme émerge directement dans le cytoplasme de la cellule hôte, il n’y a donc plus de reconnaissance en tant que corps étranger.
 La spore vide est abandonnée alors que le sporoplasme émerge dans la cellule avec une nouvelle membrane issue de la membrane du polaroplaste.
-Phase proliférative ou schizogonie
-La durée d’évolution du cycle est toujours brève, 24 à 48h, mais elle est liée à plusieurs facteurs extrinsèques : la température ambiante, qui influe sur le nombre de spores obtenues, ou les tissus de l’hôte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Infection et cycle de vie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phase proliférative ou schizogonie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La durée d’évolution du cycle est toujours brève, 24 à 48h, mais elle est liée à plusieurs facteurs extrinsèques : la température ambiante, qui influe sur le nombre de spores obtenues, ou les tissus de l’hôte.
 Une fois dans la cellule-hôte, le sporoplasme déposé se divise par scission binaire (mérogonie), parfois à l’intérieur d’une vacuole parasitophore (comme dans le cas d’Encephalitozoon cuniculi), en formes prolifératives (mérontes) avec une simple membrane plasmique. Ces mérontes possèdent de petits ribosomes proches de ceux des procaryotes et des organites parsemées.
 Le parasite induit certains changements non délétères chez l’hôte. Souvent la cellule se réorganise autour du parasite et tous les organites sont autour de lui.
-Phase de différenciation ou sporogonie
-Il s’agit de la formation des spores. Durant cette phase il y a une augmentation du réticulum endoplasmique et du nombre de ribosomes qui se regroupent en polyribosome. Le développement du sporonte consiste en plusieurs divisions et un développement du système d’extrusion (filament polaire, polaroplaste, vacuole postérieure). L'appareil de golgi donnerait naissance au filament polaire et le réticulum endoplasmique aux membranes du polaroplaste. Quand la maturité approche, la paroi de chitine de l’endospore se développe. L’élargissement de la vacuole parasitophore et/ou de la cellule hôte par les  parasites conduit à la rupture de la cellule-hôte et au relargage des spores dans l'espace extracellulaire. Il y a ensuite libération de la spore complète qui va ensuite soit infecter le même hôte ou alors être transportée vers un autre hôte (via le système digestif).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Infection et cycle de vie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Phase de différenciation ou sporogonie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit de la formation des spores. Durant cette phase il y a une augmentation du réticulum endoplasmique et du nombre de ribosomes qui se regroupent en polyribosome. Le développement du sporonte consiste en plusieurs divisions et un développement du système d’extrusion (filament polaire, polaroplaste, vacuole postérieure). L'appareil de golgi donnerait naissance au filament polaire et le réticulum endoplasmique aux membranes du polaroplaste. Quand la maturité approche, la paroi de chitine de l’endospore se développe. L’élargissement de la vacuole parasitophore et/ou de la cellule hôte par les  parasites conduit à la rupture de la cellule-hôte et au relargage des spores dans l'espace extracellulaire. Il y a ensuite libération de la spore complète qui va ensuite soit infecter le même hôte ou alors être transportée vers un autre hôte (via le système digestif).
 Les moyens de dissémination sont les urines, les fèces, la décomposition…
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les microsporidies sont des organismes anaérobies dénués de mitochondries, permettant l'oxydation des composés organiques. À la place, ils possèdent un organite appelé mitosome.
 La difficulté des études biochimiques est due à leur mode de vie intracellulaire obligatoire.
@@ -688,62 +815,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Microsporidies hyperparasites</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les microsporidies peuvent infecter de nombreux hôtes, parmi lesquels certains sont eux-mêmes des parasites. Dans ces cas, la microsporidie est un hyperparasite, c'est-à-dire un parasite de parasite. On connaît par exemple 18 espèces qui parasitent les digènes (un groupe de Plathelminthes parasites). Ces digènes sont eux-mêmes parasites de vertébrés et de mollusques. Huit de ces espèces appartiennent au genre Nosema[10]. De la même manière, la microsporidie Toguebayea baccigeri est hyperparasite du trématode digène Bacciger israelensis (Faustulidae), lui-même un parasite intestinal du bogue, Boops boops (Teleostei, Sparidae)[11].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les microsporidies peuvent infecter de nombreux hôtes, parmi lesquels certains sont eux-mêmes des parasites. Dans ces cas, la microsporidie est un hyperparasite, c'est-à-dire un parasite de parasite. On connaît par exemple 18 espèces qui parasitent les digènes (un groupe de Plathelminthes parasites). Ces digènes sont eux-mêmes parasites de vertébrés et de mollusques. Huit de ces espèces appartiennent au genre Nosema. De la même manière, la microsporidie Toguebayea baccigeri est hyperparasite du trématode digène Bacciger israelensis (Faustulidae), lui-même un parasite intestinal du bogue, Boops boops (Teleostei, Sparidae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Origines et évolution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">D’abord classé dans les schizomycètes (sorte de « fourre-tout » pour les bactéries, levures…) ces parasites ont vu la création d’un nouveau groupe, les microsporidies, par Édouard-Gérard Balbiani en 1882.
 La place des microsporidies dans l’évolution a souvent changé depuis leur description au milieu du XIXe siècle. Elles ont d’abord été classées comme des « yeast-like fungus » puis, considérant leur mode d’infection unique, elles ont été exclues du groupe des champignons sans pour autant être rattachées à un autre groupe d’eucaryotes.
@@ -757,33 +888,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microsporidiomycota</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Liste des ordres, sous-ordres et non classés</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 juin 2013)[12] :
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 juin 2013) :
 sous-ordre des Apansporoblastina
 sous-ordre des Pansporoblastina
 non classé Microsporidia incertae sedis
